--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data-Structures-and-Algorithms-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C0CA7-411C-48A2-B6E0-AA3ABE04639E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A3B67-B69D-42B3-A260-74C7B82F2935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="1233">
   <si>
     <t>Sno</t>
   </si>
@@ -4137,7 +4137,7 @@
   <dimension ref="A1:AE1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4781,7 +4781,9 @@
       <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -4824,7 +4826,9 @@
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -4867,7 +4871,9 @@
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -4910,7 +4916,9 @@
       <c r="E18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -4953,7 +4961,9 @@
       <c r="E19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -4996,7 +5006,9 @@
       <c r="E20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -5039,7 +5051,9 @@
       <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -5082,7 +5096,9 @@
       <c r="E22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -5125,7 +5141,9 @@
       <c r="E23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data-Structures-and-Algorithms-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A3B67-B69D-42B3-A260-74C7B82F2935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73373643-EA06-4FBC-B348-C144B48CEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="1233">
   <si>
     <t>Sno</t>
   </si>
@@ -4137,7 +4137,7 @@
   <dimension ref="A1:AE1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5186,7 +5186,9 @@
       <c r="E24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data-Structures-and-Algorithms-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73373643-EA06-4FBC-B348-C144B48CEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B719A351-E35E-4868-A108-C852FD502CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1233">
   <si>
     <t>Sno</t>
   </si>
@@ -4137,7 +4137,7 @@
   <dimension ref="A1:AE1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5231,7 +5231,9 @@
       <c r="E25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -5274,7 +5276,9 @@
       <c r="E26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>1232</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
